--- a/RemuneracionesPT/testPT.xlsx
+++ b/RemuneracionesPT/testPT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpierre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Downloads\ProyectoRRHH\RemuneracionesPTv21\RemuneracionesPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75335E73-FA99-455A-B93B-67C0D7D64A20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temuco" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -132,12 +133,15 @@
   </si>
   <si>
     <t>CANTIDAD_HRS</t>
+  </si>
+  <si>
+    <t>13922109-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,20 +462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -505,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -522,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -539,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -556,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -573,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -590,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -607,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -624,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -641,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -658,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -675,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -692,11 +696,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
@@ -707,11 +713,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
@@ -724,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -775,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -792,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -809,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -826,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -843,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -860,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -877,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -894,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -911,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E27" s="2"/>
     </row>
   </sheetData>
